--- a/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_2_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_2_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3426254.927113043</v>
+        <v>3426254.927113045</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.7309950073</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.7309950073</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177527</v>
+        <v>3940022.790763319</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177527</v>
+        <v>3940022.790763319</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494146826.703394</v>
+        <v>56586889.23296177</v>
       </c>
     </row>
   </sheetData>
@@ -676,13 +676,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F2" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G2" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C3" t="n">
-        <v>359.5662124879463</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D3" t="n">
         <v>347.9376868977026</v>
       </c>
       <c r="E3" t="n">
-        <v>342.6720972219126</v>
+        <v>341.1383972643396</v>
       </c>
       <c r="F3" t="n">
         <v>339.6362423378769</v>
@@ -910,13 +910,13 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E5" t="n">
-        <v>402.9749453138922</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F5" t="n">
         <v>404.8896287080119</v>
       </c>
       <c r="G5" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H5" t="n">
         <v>347.8590406130752</v>
@@ -992,10 +992,10 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F6" t="n">
-        <v>338.1025423803039</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G6" t="n">
-        <v>322.5970075731406</v>
+        <v>321.0633076155676</v>
       </c>
       <c r="H6" t="n">
         <v>301.8178796392513</v>
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C8" t="n">
         <v>449.4745782429939</v>
@@ -1192,7 +1192,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T8" t="n">
-        <v>559.5765741190048</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U8" t="n">
         <v>648.751427201877</v>
@@ -1235,7 +1235,7 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H9" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
         <v>108.929687778141</v>
@@ -1280,7 +1280,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W9" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X9" t="n">
         <v>419.8627394453875</v>
@@ -1387,13 +1387,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F11" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G11" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S12" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T12" t="n">
         <v>392.6911708778912</v>
@@ -1563,16 +1563,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>25.70923750768748</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E14" t="n">
-        <v>402.9749453138922</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F14" t="n">
         <v>404.8896287080119</v>
@@ -1630,7 +1630,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N16" t="n">
-        <v>25.70923750768748</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2043,10 +2043,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N19" t="n">
-        <v>25.70923750768748</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C20" t="n">
         <v>449.4745782429939</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>25.70923750768748</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2517,10 +2517,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O25" t="n">
-        <v>25.70923750768748</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F26" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G26" t="n">
         <v>397.8840054528454</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T26" t="n">
         <v>560.964918411981</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S27" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T27" t="n">
         <v>392.6911708778912</v>
@@ -2754,7 +2754,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N28" t="n">
-        <v>25.70923750768748</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2797,25 +2797,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>481.9993129553962</v>
+        <v>481.9993129554035</v>
       </c>
       <c r="C29" t="n">
-        <v>449.4745782428157</v>
+        <v>449.4745782428229</v>
       </c>
       <c r="D29" t="n">
-        <v>410.3391557396715</v>
+        <v>410.3391557396788</v>
       </c>
       <c r="E29" t="n">
-        <v>404.3632896066904</v>
+        <v>404.3632896066977</v>
       </c>
       <c r="F29" t="n">
-        <v>404.8896287080119</v>
+        <v>404.8896287078409</v>
       </c>
       <c r="G29" t="n">
-        <v>396.4956611620081</v>
+        <v>396.4956611620904</v>
       </c>
       <c r="H29" t="n">
-        <v>347.8590406128969</v>
+        <v>347.8590406129042</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,25 +2848,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>361.0088210684763</v>
+        <v>361.0088210684835</v>
       </c>
       <c r="T29" t="n">
-        <v>560.9649184118027</v>
+        <v>560.96491841181</v>
       </c>
       <c r="U29" t="n">
-        <v>648.7514272016988</v>
+        <v>648.7514272017061</v>
       </c>
       <c r="V29" t="n">
-        <v>629.8510241666456</v>
+        <v>629.8510241666529</v>
       </c>
       <c r="W29" t="n">
-        <v>638.3734759807693</v>
+        <v>638.3734759807766</v>
       </c>
       <c r="X29" t="n">
-        <v>592.2818334604895</v>
+        <v>592.2818334604967</v>
       </c>
       <c r="Y29" t="n">
-        <v>511.3174326826281</v>
+        <v>511.3174326826354</v>
       </c>
     </row>
     <row r="30">
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>352.1613821980396</v>
+        <v>352.1613821978686</v>
       </c>
       <c r="S30" t="n">
-        <v>406.6592151020769</v>
+        <v>406.6592151028891</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -2991,7 +2991,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N31" t="n">
-        <v>25.70923750768748</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U32" t="n">
-        <v>647.3630829089011</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V32" t="n">
         <v>629.8510241668239</v>
@@ -3225,10 +3225,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M34" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>25.70923750768748</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C35" t="n">
         <v>449.4745782429939</v>
@@ -3340,7 +3340,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y35" t="n">
-        <v>509.92908838983</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="36">
@@ -3401,7 +3401,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S36" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T36" t="n">
         <v>392.6911708778912</v>
@@ -3413,7 +3413,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W36" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X36" t="n">
         <v>419.8627394453875</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>359.620476775678</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T38" t="n">
         <v>560.964918411981</v>
@@ -3702,7 +3702,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N40" t="n">
-        <v>25.70923750768748</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E41" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F41" t="n">
-        <v>403.5012844150354</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G41" t="n">
         <v>397.8840054528454</v>
@@ -3939,13 +3939,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>25.70923750768748</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D44" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E44" t="n">
         <v>404.3632896068686</v>
@@ -4000,7 +4000,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H44" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>25.70923750768748</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G2" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
@@ -4354,34 +4354,34 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P2" t="n">
-        <v>5864.602299897899</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R2" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="3">
@@ -4394,10 +4394,10 @@
         <v>2285.562842359567</v>
       </c>
       <c r="C3" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D3" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E3" t="n">
         <v>1224.779007402434</v>
@@ -4497,22 +4497,22 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>426.6131206966359</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O4" t="n">
-        <v>426.6131206966359</v>
+        <v>438.463966970767</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4549,19 +4549,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C5" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D5" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E5" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F5" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
         <v>492.3327682960356</v>
@@ -4588,37 +4588,37 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O5" t="n">
-        <v>5048.61527574625</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P5" t="n">
-        <v>5884.482603843663</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R5" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y5" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>1223.229815526098</v>
       </c>
       <c r="F6" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G6" t="n">
         <v>555.8565327448407</v>
@@ -4734,16 +4734,16 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L7" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O7" t="n">
         <v>426.6131206966359</v>
@@ -4816,46 +4816,46 @@
         <v>1339.420289043491</v>
       </c>
       <c r="L8" t="n">
-        <v>3071.357825473567</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M8" t="n">
-        <v>3553.537024987069</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N8" t="n">
-        <v>4118.580088859741</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O8" t="n">
-        <v>5028.734971800485</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P8" t="n">
-        <v>5864.602299897899</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R8" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T8" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U8" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V8" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W8" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X8" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y8" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="9">
@@ -4865,22 +4865,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2285.562842359567</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C9" t="n">
-        <v>1920.815456050962</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D9" t="n">
-        <v>1569.363247063383</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E9" t="n">
-        <v>1223.229815526098</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F9" t="n">
-        <v>880.1629040736968</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G9" t="n">
-        <v>554.3073408685043</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H9" t="n">
         <v>250.9899876546879</v>
@@ -4928,13 +4928,13 @@
         <v>3938.273783539039</v>
       </c>
       <c r="W9" t="n">
-        <v>3501.533235145273</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X9" t="n">
-        <v>3077.429457927709</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y9" t="n">
-        <v>2674.003808668988</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="10">
@@ -4971,16 +4971,16 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L10" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M10" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N10" t="n">
-        <v>307.8416045893197</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O10" t="n">
         <v>426.6131206966359</v>
@@ -5023,22 +5023,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E11" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F11" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G11" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5065,34 +5065,34 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P11" t="n">
-        <v>5864.602299897899</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R11" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="12">
@@ -5150,7 +5150,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R12" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S12" t="n">
         <v>5159.222422432123</v>
@@ -5208,16 +5208,16 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M13" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O13" t="n">
         <v>140.96</v>
@@ -5260,22 +5260,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E14" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F14" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G14" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H14" t="n">
         <v>140.96</v>
@@ -5299,37 +5299,37 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O14" t="n">
-        <v>4214.390158686993</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P14" t="n">
-        <v>5864.602299897899</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R14" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="15">
@@ -5445,7 +5445,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
         <v>275.6639043471516</v>
@@ -5512,7 +5512,7 @@
         <v>892.8334361342871</v>
       </c>
       <c r="G17" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
@@ -5682,7 +5682,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
         <v>275.6639043471516</v>
@@ -5691,7 +5691,7 @@
         <v>166.9289267754419</v>
       </c>
       <c r="N19" t="n">
-        <v>140.96</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O19" t="n">
         <v>140.96</v>
@@ -5734,22 +5734,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G20" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
@@ -5761,49 +5761,49 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K20" t="n">
-        <v>1936.671378010444</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L20" t="n">
-        <v>3681.051378010445</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M20" t="n">
-        <v>4163.230577523947</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N20" t="n">
-        <v>4728.273641396619</v>
+        <v>3373.59157327536</v>
       </c>
       <c r="O20" t="n">
-        <v>5638.428524337363</v>
+        <v>4283.746456216104</v>
       </c>
       <c r="P20" t="n">
-        <v>6474.295852434777</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R20" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="21">
@@ -5919,7 +5919,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
         <v>275.6639043471516</v>
@@ -5931,7 +5931,7 @@
         <v>166.9289267754419</v>
       </c>
       <c r="O22" t="n">
-        <v>140.96</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="P22" t="n">
         <v>140.96</v>
@@ -6010,7 +6010,7 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O23" t="n">
-        <v>5028.734971800485</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P23" t="n">
         <v>5864.602299897899</v>
@@ -6156,7 +6156,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
         <v>275.6639043471516</v>
@@ -6165,7 +6165,7 @@
         <v>166.9289267754419</v>
       </c>
       <c r="N25" t="n">
-        <v>166.9289267754419</v>
+        <v>140.96</v>
       </c>
       <c r="O25" t="n">
         <v>140.96</v>
@@ -6208,16 +6208,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C26" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D26" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E26" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F26" t="n">
         <v>894.2358041069906</v>
@@ -6247,37 +6247,37 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O26" t="n">
-        <v>5028.734971800485</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P26" t="n">
-        <v>5864.602299897899</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R26" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T26" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U26" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V26" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W26" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X26" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y26" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="27">
@@ -6335,7 +6335,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R27" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S27" t="n">
         <v>5159.222422432123</v>
@@ -6393,7 +6393,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L28" t="n">
         <v>275.6639043471516</v>
@@ -6445,22 +6445,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347547571</v>
+        <v>2578.75934754751</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622049777</v>
+        <v>2124.744622049709</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.260626353139</v>
+        <v>1710.260626353064</v>
       </c>
       <c r="E29" t="n">
-        <v>1301.812859073653</v>
+        <v>1301.812859073571</v>
       </c>
       <c r="F29" t="n">
-        <v>892.8334361362678</v>
+        <v>892.8334361363582</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682958555</v>
+        <v>492.3327682958628</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
@@ -6484,37 +6484,37 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O29" t="n">
-        <v>5028.734971800485</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P29" t="n">
-        <v>5864.602299897899</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R29" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183359</v>
+        <v>6683.34462518335</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464367</v>
+        <v>6116.71339446435</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922543458</v>
+        <v>5461.408922543435</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766819574</v>
+        <v>4825.195766819543</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073909706</v>
+        <v>4180.374073909667</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595666787</v>
+        <v>3582.109595666741</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340431809</v>
+        <v>3065.627340431756</v>
       </c>
     </row>
     <row r="30">
@@ -6548,31 +6548,31 @@
         <v>140.96</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295150981</v>
+        <v>558.847529515091</v>
       </c>
       <c r="K30" t="n">
-        <v>1250.415257213432</v>
+        <v>1250.415257213417</v>
       </c>
       <c r="L30" t="n">
-        <v>2197.270784374846</v>
+        <v>2197.270784374824</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117882</v>
+        <v>3071.633876117853</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.060204216016</v>
+        <v>4014.060204216157</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.313206182755</v>
+        <v>4993.313206183064</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.926775369242</v>
+        <v>5699.92677536972</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.707874250422</v>
+        <v>5925.707874251069</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306373614</v>
+        <v>5569.989306374435</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422432123</v>
@@ -6630,7 +6630,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
         <v>275.6639043471516</v>
@@ -6682,22 +6682,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C32" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D32" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E32" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F32" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G32" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H32" t="n">
         <v>140.96</v>
@@ -6739,19 +6739,19 @@
         <v>6116.713394464006</v>
       </c>
       <c r="U32" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V32" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W32" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X32" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y32" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="33">
@@ -6867,13 +6867,13 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
         <v>275.6639043471516</v>
       </c>
       <c r="M34" t="n">
-        <v>166.9289267754419</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N34" t="n">
         <v>140.96</v>
@@ -6961,34 +6961,34 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P35" t="n">
-        <v>5864.602299897899</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R35" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y35" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="36">
@@ -7049,16 +7049,16 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S36" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T36" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U36" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V36" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W36" t="n">
         <v>3503.082427021609</v>
@@ -7104,7 +7104,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L37" t="n">
         <v>275.6639043471516</v>
@@ -7198,13 +7198,13 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P38" t="n">
-        <v>5864.602299897899</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R38" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S38" t="n">
         <v>6684.746993155883</v>
@@ -7341,7 +7341,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
         <v>275.6639043471516</v>
@@ -7393,16 +7393,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C41" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D41" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E41" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F41" t="n">
         <v>894.2358041069906</v>
@@ -7432,37 +7432,37 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O41" t="n">
-        <v>5028.734971800485</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P41" t="n">
-        <v>5864.602299897899</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R41" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="42">
@@ -7578,7 +7578,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L43" t="n">
         <v>275.6639043471516</v>
@@ -7587,10 +7587,10 @@
         <v>166.9289267754419</v>
       </c>
       <c r="N43" t="n">
-        <v>166.9289267754419</v>
+        <v>140.96</v>
       </c>
       <c r="O43" t="n">
-        <v>166.9289267754419</v>
+        <v>140.96</v>
       </c>
       <c r="P43" t="n">
         <v>140.96</v>
@@ -7630,22 +7630,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D44" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E44" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F44" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G44" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H44" t="n">
         <v>140.96</v>
@@ -7672,34 +7672,34 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P44" t="n">
-        <v>5864.602299897899</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R44" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="45">
@@ -7815,13 +7815,13 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M46" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N46" t="n">
         <v>140.96</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>822.5705182964562</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q2" t="n">
         <v>615.8520732695737</v>
@@ -8236,13 +8236,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>842.6516333931884</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q5" t="n">
-        <v>595.7709581728425</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>822.5705182964566</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q8" t="n">
         <v>615.8520732695737</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>822.5705182964562</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q11" t="n">
         <v>615.8520732695737</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>822.5705182964546</v>
       </c>
       <c r="P14" t="n">
-        <v>822.5705182964562</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>615.8520732695737</v>
@@ -9409,28 +9409,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>603.2839282494474</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>835.138663316583</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>70.05686619102073</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R20" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>822.5705182964564</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>822.5705182964562</v>
       </c>
       <c r="Q23" t="n">
         <v>615.8520732695737</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>822.5705182964564</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q26" t="n">
         <v>615.8520732695737</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>822.5705182964564</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q29" t="n">
         <v>615.8520732695737</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>822.5705182964562</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q35" t="n">
         <v>615.8520732695737</v>
@@ -10846,10 +10846,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>822.5705182964562</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q38" t="n">
-        <v>615.8520732695737</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="R38" t="n">
         <v>294.54111633436</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>822.5705182964564</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q41" t="n">
         <v>615.8520732695737</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>822.5705182964562</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q44" t="n">
         <v>615.8520732695737</v>
@@ -23275,13 +23275,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S12" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23451,16 +23451,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N13" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O13" t="n">
-        <v>268.0582198167198</v>
+        <v>102.8454312732934</v>
       </c>
       <c r="P13" t="n">
         <v>368.8061924102448</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.388344292976456</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23518,7 +23518,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23752,10 +23752,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.388344292976399</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23931,10 +23931,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O19" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P19" t="n">
         <v>368.8061924102448</v>
@@ -23974,7 +23974,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O22" t="n">
-        <v>242.3489823090323</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P22" t="n">
-        <v>368.8061924102448</v>
+        <v>343.0969549025573</v>
       </c>
       <c r="Q22" t="n">
         <v>505.228266425598</v>
@@ -24405,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O25" t="n">
-        <v>242.3489823090323</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P25" t="n">
         <v>368.8061924102448</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S27" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.388344290659006</v>
+        <v>1.38834429058403</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.533699956874045</v>
+        <v>1.533699955890881</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.38834429297583</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25113,10 +25113,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N34" t="n">
-        <v>142.3116902230136</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O34" t="n">
         <v>268.0582198167198</v>
@@ -25159,7 +25159,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25228,7 +25228,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.388344292976342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25353,7 +25353,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N37" t="n">
-        <v>34.66406242702101</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O37" t="n">
         <v>268.0582198167198</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.388344292976512</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F41" t="n">
-        <v>1.388344292976456</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25827,13 +25827,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O43" t="n">
         <v>268.0582198167198</v>
       </c>
       <c r="P43" t="n">
-        <v>343.0969549025573</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q43" t="n">
         <v>505.228266425598</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25888,7 +25888,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26058,13 +26058,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>142.3116902230136</v>
+        <v>2.808139187274691</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15096.00000993379</v>
+        <v>1240465.351388876</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30103.2164501875</v>
+        <v>2468357.965713155</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45110.4328904412</v>
+        <v>3696250.580037436</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62191.16103297014</v>
+        <v>4796092.453661889</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79271.88917549908</v>
+        <v>5895934.327286341</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96352.61731802802</v>
+        <v>6995776.200910787</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113433.345460557</v>
+        <v>8095618.074535231</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130514.0736030859</v>
+        <v>9195459.948159674</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147594.8017456148</v>
+        <v>10295301.82178412</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164675.5298881428</v>
+        <v>11395143.69540882</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181756.2580306717</v>
+        <v>12494985.56903326</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>198836.9861732007</v>
+        <v>13594827.44265771</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>215917.7143157298</v>
+        <v>14694669.31628218</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>232998.4424582589</v>
+        <v>15794511.18990664</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250079.170600788</v>
+        <v>16894353.06353111</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976017.2062577608</v>
+        <v>976017.2062577606</v>
       </c>
       <c r="C2" t="n">
-        <v>976017.2062577605</v>
+        <v>976017.2062577604</v>
       </c>
       <c r="D2" t="n">
-        <v>976017.2062577608</v>
+        <v>976017.2062577604</v>
       </c>
       <c r="E2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.2841630245</v>
       </c>
       <c r="F2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.2841630246</v>
       </c>
       <c r="G2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.2841630246</v>
       </c>
       <c r="H2" t="n">
-        <v>874233.284163025</v>
+        <v>874233.2841630246</v>
       </c>
       <c r="I2" t="n">
         <v>874233.2841630247</v>
       </c>
       <c r="J2" t="n">
+        <v>874233.2841630245</v>
+      </c>
+      <c r="K2" t="n">
+        <v>874233.2841632277</v>
+      </c>
+      <c r="L2" t="n">
+        <v>874233.2841630249</v>
+      </c>
+      <c r="M2" t="n">
         <v>874233.2841630247</v>
       </c>
-      <c r="K2" t="n">
-        <v>874233.284163191</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>874233.2841630247</v>
       </c>
-      <c r="M2" t="n">
-        <v>874233.2841630249</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>874233.2841630246</v>
       </c>
-      <c r="O2" t="n">
-        <v>874233.2841630249</v>
-      </c>
       <c r="P2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.2841630245</v>
       </c>
     </row>
     <row r="3">
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620224.0000000001</v>
+        <v>620224</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,49 +26423,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89075.80382163513</v>
+        <v>89075.80382163521</v>
       </c>
       <c r="C4" t="n">
-        <v>88773.85276715399</v>
+        <v>88773.85276715407</v>
       </c>
       <c r="D4" t="n">
-        <v>88471.49209722097</v>
+        <v>88471.49209722105</v>
       </c>
       <c r="E4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="F4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="G4" t="n">
         <v>13783.46259850302</v>
       </c>
       <c r="H4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="I4" t="n">
         <v>13783.46259850302</v>
       </c>
       <c r="J4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="K4" t="n">
-        <v>13783.46259862161</v>
+        <v>13783.46259864834</v>
       </c>
       <c r="L4" t="n">
         <v>13783.46259850302</v>
       </c>
       <c r="M4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="N4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="O4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="P4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
     </row>
     <row r="5">
@@ -26527,49 +26527,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1330364.597563874</v>
+        <v>-1330364.597563875</v>
       </c>
       <c r="C6" t="n">
-        <v>714636.3534906065</v>
+        <v>714636.3534906064</v>
       </c>
       <c r="D6" t="n">
-        <v>714938.7141605398</v>
+        <v>714938.7141605393</v>
       </c>
       <c r="E6" t="n">
-        <v>721470.4215645217</v>
+        <v>721470.4215645215</v>
       </c>
       <c r="F6" t="n">
-        <v>721470.4215645217</v>
+        <v>721470.4215645216</v>
       </c>
       <c r="G6" t="n">
-        <v>721470.4215645217</v>
+        <v>721470.4215645216</v>
       </c>
       <c r="H6" t="n">
-        <v>721470.421564522</v>
+        <v>721470.4215645216</v>
       </c>
       <c r="I6" t="n">
         <v>721470.4215645217</v>
       </c>
       <c r="J6" t="n">
-        <v>101246.4215645216</v>
+        <v>101246.4215645215</v>
       </c>
       <c r="K6" t="n">
-        <v>721470.4215645693</v>
+        <v>721470.4215645794</v>
       </c>
       <c r="L6" t="n">
+        <v>721470.4215645219</v>
+      </c>
+      <c r="M6" t="n">
         <v>721470.4215645217</v>
       </c>
-      <c r="M6" t="n">
-        <v>721470.4215645219</v>
-      </c>
       <c r="N6" t="n">
+        <v>721470.4215645217</v>
+      </c>
+      <c r="O6" t="n">
         <v>721470.4215645216</v>
       </c>
-      <c r="O6" t="n">
-        <v>721470.4215645219</v>
-      </c>
       <c r="P6" t="n">
-        <v>721470.4215645217</v>
+        <v>721470.4215645215</v>
       </c>
     </row>
   </sheetData>
@@ -27037,37 +27037,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27144,22 +27144,22 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27520,13 +27520,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27590,13 +27590,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>1.533699957572992</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27702,13 +27702,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N4" t="n">
-        <v>287.9921561219296</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
-        <v>268.0582198167198</v>
+        <v>400</v>
       </c>
       <c r="P4" t="n">
-        <v>400</v>
+        <v>388.0294482079482</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27754,13 +27754,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.388344292976456</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.533699957572935</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27942,7 +27942,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
-        <v>388.0294482079482</v>
+        <v>388.0294482079483</v>
       </c>
       <c r="P7" t="n">
         <v>400</v>
@@ -27982,7 +27982,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -28036,7 +28036,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.388344292976171</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28124,7 +28124,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28176,10 +28176,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
-        <v>168.0209277307011</v>
+        <v>287.9921561219296</v>
       </c>
       <c r="O10" t="n">
-        <v>388.0294482079482</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
         <v>400</v>
@@ -29641,25 +29641,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="C29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="D29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="E29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="G29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="H29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29692,25 +29692,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="T29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="U29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="V29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="W29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="X29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
     </row>
     <row r="30">
@@ -29744,34 +29744,34 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="K30" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="L30" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="M30" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -34846,7 +34846,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>1666.880950718086</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q2" t="n">
         <v>1077.286931655656</v>
@@ -34998,13 +34998,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P4" t="n">
-        <v>31.19380758975518</v>
+        <v>19.22325579770342</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35080,13 +35080,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O5" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q5" t="n">
-        <v>1057.205816558925</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R5" t="n">
         <v>118.0642805686905</v>
@@ -35308,7 +35308,7 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
-        <v>1749.431854979874</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35320,7 +35320,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q8" t="n">
         <v>1077.286931655656</v>
@@ -35472,10 +35472,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="O10" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>31.19380758975518</v>
@@ -35557,7 +35557,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
-        <v>1666.880950718086</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q11" t="n">
         <v>1077.286931655656</v>
@@ -35791,10 +35791,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>919.3483666068121</v>
+        <v>1741.918884903267</v>
       </c>
       <c r="P14" t="n">
-        <v>1666.880950718086</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
         <v>1077.286931655656</v>
@@ -36253,28 +36253,28 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>1350.398214681608</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L20" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
-        <v>570.7505695683558</v>
+        <v>640.8074357593765</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R20" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36502,10 +36502,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>1741.918884903268</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718086</v>
       </c>
       <c r="Q23" t="n">
         <v>1077.286931655656</v>
@@ -36739,10 +36739,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
-        <v>1741.918884903268</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q26" t="n">
         <v>1077.286931655656</v>
@@ -36976,10 +36976,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>1741.918884903268</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q29" t="n">
         <v>1077.286931655656</v>
@@ -37040,28 +37040,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>422.1086156718163</v>
+        <v>422.108615671809</v>
       </c>
       <c r="K30" t="n">
-        <v>698.553260301347</v>
+        <v>698.5532603013397</v>
       </c>
       <c r="L30" t="n">
-        <v>956.4197244054692</v>
+        <v>956.4197244054619</v>
       </c>
       <c r="M30" t="n">
-        <v>883.1950421646825</v>
+        <v>883.1950421646752</v>
       </c>
       <c r="N30" t="n">
-        <v>951.9457859577115</v>
+        <v>951.9457859578824</v>
       </c>
       <c r="O30" t="n">
-        <v>989.1444464310483</v>
+        <v>989.1444464312193</v>
       </c>
       <c r="P30" t="n">
-        <v>713.7510799863513</v>
+        <v>713.7510799865223</v>
       </c>
       <c r="Q30" t="n">
-        <v>228.0617160415959</v>
+        <v>228.0617160417669</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37453,7 +37453,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>1666.880950718086</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q35" t="n">
         <v>1077.286931655656</v>
@@ -37690,10 +37690,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>1666.880950718086</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q38" t="n">
-        <v>1077.286931655656</v>
+        <v>1029.279517277987</v>
       </c>
       <c r="R38" t="n">
         <v>118.0642805686905</v>
@@ -37924,10 +37924,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>1741.918884903268</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q41" t="n">
         <v>1077.286931655656</v>
@@ -38164,7 +38164,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>1666.880950718086</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q44" t="n">
         <v>1077.286931655656</v>
